--- a/data/trans_bre/P37_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,93%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,85%</t>
+          <t>-17,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-17,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-19,17%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 9,6</t>
+          <t>-7,24; 13,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 3,52</t>
+          <t>-19,56; 3,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 5,21</t>
+          <t>-21,45; 3,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 29,55</t>
+          <t>-26,2; 2,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 8,78</t>
+          <t>-18,01; 49,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 14,16</t>
+          <t>-38,5; 8,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-38,86; 8,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-44,41; 6,02</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,63</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>13,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>30,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 12,66</t>
+          <t>-14,47; 9,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 23,15</t>
+          <t>-2,88; 20,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 18,54</t>
+          <t>-9,67; 14,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 53,01</t>
+          <t>1,71; 27,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 103,13</t>
+          <t>-35,17; 31,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 73,88</t>
+          <t>-8,53; 83,75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,12; 51,33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 90,98</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-17,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-19,81</t>
+          <t>-19,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>-17,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-43,57%</t>
+          <t>-41,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>-37,49%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>91,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-33,77%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 12,8</t>
+          <t>-55,69; 8,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -2,13</t>
+          <t>-51,56; 8,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 29,46</t>
+          <t>-6,46; 42,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 67,84</t>
+          <t>-50,28; 12,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,99; -2,55</t>
+          <t>-84,36; 41,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 165,86</t>
+          <t>-74,17; 31,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,2; 421,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-72,33; 37,11</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,19</t>
+          <t>-10,62; 6,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,63</t>
+          <t>-10,74; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 9,57</t>
+          <t>-10,05; 7,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 22,92</t>
+          <t>-11,36; 8,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 23,26</t>
+          <t>-25,4; 19,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 29,84</t>
+          <t>-23,27; 16,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 21,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 23,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P37_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,18</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,13%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-17,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-19,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.418271425093998</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.245179809393615</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.811768852116082</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.53813060672903</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.04010140148219814</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1661396239845419</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1930215989785795</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.218371750787309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 13,97</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,56; 3,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,45; 3,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 2,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-18,01; 49,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-38,5; 8,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-38,86; 8,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,41; 6,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.987610631293409</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.40840472709622</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.67461238454491</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.55096759389429</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2223310058041083</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3689108466229874</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.397091838160908</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4691738732144265</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.23346929019339</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.937528905545926</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.388310686925065</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9275793809837116</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4137441418099682</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1046542218565366</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.067077383415774</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.02901845976006997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-8,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>38,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; 9,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 20,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 14,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 27,31</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-35,17; 31,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 83,75</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,12; 51,33</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 90,98</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.568681472818795</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.900802675958726</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.814222628351943</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.09238125182071</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1900722151125073</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3180106044443318</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1080524021133167</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3599484113404365</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-17,7</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-19,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>20,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-17,43</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-41,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-37,49%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>91,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-33,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-19.83663687011738</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.500446897842223</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.572450171896042</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.971295112341247</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4277358620075124</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.08352884688944334</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2234891823766054</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.02086594117601178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-55,69; 8,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-51,56; 8,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 42,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-50,28; 12,34</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-84,36; 41,61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-74,17; 31,63</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; 421,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,33; 37,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.364006818345379</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>21.71616708087463</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.19210792643678</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.84807608775734</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.218615778802586</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8667660774634738</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5348425032898716</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8915411433133861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-5,4%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,52%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-2,21%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-17.93808138374704</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-16.07345076516167</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>20.78344074366477</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-18.6165498480791</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4260013535549066</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3312856995847465</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9079288367059642</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3564159605196316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 6,28</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 5,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 7,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 8,77</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-25,4; 19,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-23,27; 16,01</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; 21,27</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 23,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-56.23672362236988</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-46.42299771109742</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.213491408575827</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-51.07097871588958</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8325190134302868</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7318701744649478</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1786893901567643</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.730487137726769</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.553004243828395</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.18100231539358</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>42.05104619440094</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.91282001035439</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.4371151163521283</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4220838434115435</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>4.183037041977447</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3532873878386071</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.146022885470457</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.974372614940755</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.4079807018783632</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.084526646242024</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1093135396683396</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.02509018981832983</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01050818558406019</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.04740824473568302</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.76675858153639</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.291123998012711</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.22228280221344</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.06008737415759</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2987791490872433</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2145795702149649</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2231093255879793</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2540047276022229</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.978319539656577</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.157322141252463</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.024076890715906</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.501726794500134</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1220656613771538</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1805296641298052</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1986253411089137</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1931980555892347</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
